--- a/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335383AA-92AE-4CE9-918D-4EC143EA4532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D51987-0DE8-4849-879B-356883FE2CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17001,7 +17001,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D51987-0DE8-4849-879B-356883FE2CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D76520F-DC43-4C0F-BD0A-188A90285270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1005" windowWidth="21600" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="2265" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8816598360655728E-5</v>
+        <v>6.9497950819672117E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7241702477827554E-5</v>
+        <v>3.7633720398646787E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,19 +13510,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5497091840425764E-2</v>
+        <v>6.4861197744887647E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3251187023055917</v>
+        <v>1.2991359826525408</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3352534578038986</v>
+        <v>3.1764318645751413</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1276261388442279</v>
+        <v>4.0850732920520185</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13530,19 +13530,19 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7735926180509942</v>
+        <v>4.9227673873650888</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3725345494296537</v>
+        <v>4.1993648643037265</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2885748513976738</v>
+        <v>3.3570868274684589</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7650585625606465</v>
+        <v>1.8951155092756418</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13550,15 +13550,15 @@
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7162393056613396E-3</v>
+        <v>2.5052692625031773E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.412512796837926E-4</v>
+        <v>4.6882948466402965E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2605376245771236E-4</v>
+        <v>1.2362965164121787E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,11 +13583,11 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1773238476944492</v>
+        <v>5.8103541141680459</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.671107710937358</v>
+        <v>5.559909520526821</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13595,7 +13595,7 @@
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3601862442111035</v>
+        <v>5.4148820222132574</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13603,55 +13603,55 @@
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0970020240031655</v>
+        <v>4.2642265964114578</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6372113800978827</v>
+        <v>3.7841694156573933</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1666967378917747</v>
+        <v>3.463574557069129</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618266237372895</v>
+        <v>3.1003500582057404</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.919726973160425</v>
+        <v>2.9787113564565946</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7547880874021322</v>
+        <v>2.9287747034485836</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8895467691499661</v>
+        <v>3.0340241076074643</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8408515419025138</v>
+        <v>2.705572897050013</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6925565214850011</v>
+        <v>2.7991924233259913</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3913659204914826</v>
+        <v>3.5256774420951058</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7002462819572246</v>
+        <v>3.7376225070275</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1014201833594868</v>
+        <v>3.7498698819286735</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2372919622215441</v>
+        <v>4.5399556738087981</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13659,23 +13659,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.20649519051093</v>
+        <v>4.2906250943211486</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3809100574526587</v>
+        <v>4.4694132909365507</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4954024809143229</v>
+        <v>4.5862186926499655</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1744865457047231</v>
+        <v>4.5699642184556977</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8664421375385691</v>
+        <v>4.7174694190424908</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1782786885245893E-5</v>
+        <v>5.3418032786885243E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>3.1047819328883605E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8327951260896673E-2</v>
+        <v>5.1380242919479624E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0600949618444733</v>
+        <v>0.99773643467715134</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4140882170771074</v>
+        <v>2.6682027662431187</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5403968531117505</v>
+        <v>3.370185465942916</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6802876265116176</v>
+        <v>3.718228736063284</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9382139098920708</v>
+        <v>3.8984339714083118</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.359491891442981</v>
+        <v>3.5672955135940931</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6856694619747672</v>
+        <v>2.7130742524030813</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4269105011016596</v>
+        <v>1.4566378032079441</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3214439277869458</v>
+        <v>0.31488384762802857</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.215185453160704E-3</v>
+        <v>2.0253124143183579E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7874068172858864E-4</v>
+        <v>3.6403230573912887E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7934076986376517E-5</v>
+        <v>9.2116211026789789E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6688524590163935E-5</v>
+        <v>5.6143442622950818E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0734204992228217E-5</v>
+        <v>3.0420590655572826E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,31 +13813,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9345381813757652E-2</v>
+        <v>5.0871527643049128E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0912742254281345</v>
+        <v>1.0393087861220327</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6173798564099164</v>
+        <v>2.4394996719937088</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.506354575677983</v>
+        <v>3.2340163562078486</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.718228736063284</v>
+        <v>3.6802876265116176</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9382139098920708</v>
+        <v>3.7790941559570372</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4633937025185375</v>
+        <v>3.3248579544177956</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13849,19 +13849,19 @@
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3214439277869458</v>
+        <v>0.33456408810478033</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0253124143183579E-3</v>
+        <v>2.0464094186341741E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.530010237470341E-4</v>
+        <v>3.7506358773122374E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.599478833318095E-5</v>
+        <v>9.3085855353387573E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5053278688524585E-5</v>
+        <v>5.4508196721311469E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1047819328883605E-5</v>
+        <v>3.0734204992228217E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,7 +13914,7 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0871527643049128E-2</v>
+        <v>5.2397673472340603E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13922,47 +13922,47 @@
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6173798564099164</v>
+        <v>2.490322581826911</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5403968531117505</v>
+        <v>3.4042277433766825</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.642346516959952</v>
+        <v>3.8320520647182823</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7790941559570372</v>
+        <v>3.9382139098920708</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6019294506192789</v>
+        <v>3.4287597654933517</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6582646715464531</v>
+        <v>2.740479042831395</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5160924074205133</v>
+        <v>1.5309560584736557</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32472396786640445</v>
+        <v>0.33784412818423898</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1307974358974391E-3</v>
+        <v>2.1729914445290715E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7138649373385878E-4</v>
+        <v>3.6770939973649382E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.5025144006583153E-5</v>
+        <v>9.7934076986376517E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6772540983606548E-5</v>
+        <v>6.8816598360655728E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.422530364934953E-2</v>
+        <v>6.0409939076120842E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3121273424790663</v>
+        <v>1.2991359826525408</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2717248205123957</v>
+        <v>3.1764318645751413</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0850732920520185</v>
+        <v>4.4680489131818968</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6477859200791043</v>
+        <v>4.6952123070186875</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1216670797838795</v>
+        <v>5.0222172335744837</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2426572855852083</v>
+        <v>4.3725345494296537</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4598547915746365</v>
+        <v>3.3913428155038514</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8951155092756418</v>
+        <v>1.9322746369084973</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.40180490973368227</v>
+        <v>0.40590495983300556</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6371255394770287E-3</v>
+        <v>2.5316405178979475E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.550403821739111E-4</v>
+        <v>4.3665491218708642E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2605376245771236E-4</v>
+        <v>1.1756937459998169E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,27 +14257,27 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2384854699488486</v>
+        <v>6.1773238476944492</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2819140445004802</v>
+        <v>5.559909520526821</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4570913870260815</v>
+        <v>5.566233214766604</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4695778002154114</v>
+        <v>5.2507946882067946</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8313794439228852</v>
+        <v>4.6419135833768896</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0970020240031655</v>
+        <v>4.2224204533093852</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14285,23 +14285,23 @@
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2986424353039325</v>
+        <v>3.3646152840100108</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1326453713120501</v>
+        <v>3.1649406844183603</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9492191648085098</v>
+        <v>2.860742589864254</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8417813954253579</v>
+        <v>2.8127836260842827</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8317558337669668</v>
+        <v>2.9473377045329654</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14309,35 +14309,35 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7725334478657437</v>
+        <v>2.7458744724054962</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5256774420951058</v>
+        <v>3.4585216812932944</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9245036323788751</v>
+        <v>3.5881176067463998</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1014201833594868</v>
+        <v>4.062359038756064</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4967180007249041</v>
+        <v>4.4102426545571181</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1111528567012563</v>
+        <v>3.9878182710002186</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2485601424160393</v>
+        <v>4.4168199500364764</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5579165244204427</v>
+        <v>4.5136649076784972</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -14345,11 +14345,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5699642184556977</v>
+        <v>4.4381383275387059</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7174694190424908</v>
+        <v>4.816784564706543</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1782786885245893E-5</v>
+        <v>5.5598360655737695E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1047819328883605E-5</v>
+        <v>3.1988662338849774E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1380242919479624E-2</v>
+        <v>5.2397673472340603E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14394,11 +14394,11 @@
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5665569465767142</v>
+        <v>2.4140882170771074</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4723122982442165</v>
+        <v>3.370185465942916</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14406,7 +14406,7 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8586540329245542</v>
+        <v>3.7790941559570372</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14414,27 +14414,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7130742524030813</v>
+        <v>2.7678838332597091</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4120468500485173</v>
+        <v>1.4715014542610865</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3214439277869458</v>
+        <v>0.32472396786640445</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1097004315816228E-3</v>
+        <v>2.0886034272658066E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7506358773122374E-4</v>
+        <v>3.8241777572595355E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9873365639572097E-5</v>
+        <v>9.5025144006583153E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,7 +14463,7 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5598360655737695E-5</v>
+        <v>5.3963114754098352E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9854097090188142E-2</v>
+        <v>4.8836666537327156E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0704880497056937</v>
+        <v>1.0912742254281345</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5411454916601133</v>
+        <v>2.5157340367435119</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5744391305455174</v>
+        <v>3.4382700208104495</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.718228736063284</v>
+        <v>3.9838165029249475</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0177737868595873</v>
+        <v>3.9382139098920708</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3941258284681668</v>
+        <v>3.6019294506192789</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.630859881118139</v>
+        <v>2.740479042831395</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4417741521548018</v>
+        <v>1.4715014542610865</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34112416826369762</v>
+        <v>0.31160380754856992</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.215185453160704E-3</v>
+        <v>2.1940884488448878E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.530010237470341E-4</v>
+        <v>3.7506358773122374E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7934076986376517E-5</v>
+        <v>9.8903721312974287E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7233606557377044E-5</v>
+        <v>5.2327868852459003E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1361433665538992E-5</v>
+        <v>3.2302276675505162E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1380242919479624E-2</v>
+        <v>5.2906388748771099E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0912742254281345</v>
+        <v>0.99773643467715134</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6682027662431187</v>
+        <v>2.6427913113265178</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4723122982442165</v>
+        <v>3.2680586336416151</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9458753933732806</v>
+        <v>3.7941109551666163</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0575537253433458</v>
+        <v>3.8984339714083118</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4287597654933517</v>
+        <v>3.4633937025185375</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.630859881118139</v>
+        <v>2.7952886236880232</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4417741521548018</v>
+        <v>1.5012287563673712</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31816388770748716</v>
+        <v>0.3214439277869458</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0464094186341741E-3</v>
+        <v>2.1518944402132553E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.530010237470341E-4</v>
+        <v>3.56678117744399E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0181265429276766E-4</v>
+        <v>1.0084300996616988E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.154200819672131E-5</v>
+        <v>6.7453893442622951E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0769863765200697E-5</v>
+        <v>4.0377845844381451E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,19 +14858,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0409939076120842E-2</v>
+        <v>6.1045833171658945E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3511014219586426</v>
+        <v>1.2601619031729645</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0176102713463844</v>
+        <v>3.2081961832208927</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4680489131818968</v>
+        <v>4.3829432195974789</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7735926180509942</v>
+        <v>5.0222172335744837</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14886,27 +14886,27 @@
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3228308394330663</v>
+        <v>3.5968787437162062</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8207972540099302</v>
+        <v>1.8022176901935023</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.41820511013097544</v>
+        <v>0.42230516023029874</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7426105610561099E-3</v>
+        <v>2.5843830286874881E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.412512796837926E-4</v>
+        <v>4.550403821739111E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2241759623297065E-4</v>
+        <v>1.2120554082472341E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,75 +14931,75 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2996470922032497</v>
+        <v>6.4219703367120502</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.671107710937358</v>
+        <v>5.2819140445004802</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4570913870260815</v>
+        <v>5.729945956377386</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4148820222132574</v>
+        <v>5.3601862442111035</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8787459090593845</v>
+        <v>4.7366465136498874</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9715835946969458</v>
+        <v>4.2224204533093852</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7841694156573933</v>
+        <v>3.600471871208005</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.265656010950893</v>
+        <v>3.2986424353039325</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618266237372895</v>
+        <v>3.0680547450994307</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9787113564565946</v>
+        <v>2.8312503982161692</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8417813954253579</v>
+        <v>2.7837858567432079</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.976233172224465</v>
+        <v>3.0340241076074643</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.651461439109013</v>
+        <v>2.7596843549910135</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6658975460247536</v>
+        <v>2.5592616441837635</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4920995616942001</v>
+        <v>3.3577880400905769</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8123749571680499</v>
+        <v>3.9245036323788751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.062359038756064</v>
+        <v>3.7108087373252503</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4102426545571181</v>
+        <v>4.1508166160537572</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15007,11 +15007,11 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1223652867007115</v>
+        <v>4.3747549981313671</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5136649076784972</v>
+        <v>4.2924068239687667</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -15019,11 +15019,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1744865457047231</v>
+        <v>4.2623704729827177</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8664421375385691</v>
+        <v>5.2140451473627527</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15040,7 +15040,7 @@
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0106976318917431E-5</v>
+        <v>3.0734204992228217E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2906388748771099E-2</v>
+        <v>5.3415104025201582E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0393087861220327</v>
+        <v>1.0912742254281345</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4394996719937088</v>
+        <v>2.4649111269103097</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2340163562078486</v>
+        <v>3.4723122982442165</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6802876265116176</v>
+        <v>3.8320520647182823</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9779938483758288</v>
+        <v>4.0973336638271034</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5326615765689078</v>
+        <v>3.2902240173926103</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.850098204544651</v>
+        <v>2.6856694619747672</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4863651053142288</v>
+        <v>1.545819709526798</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3214439277869458</v>
+        <v>0.31488384762802857</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1307974358974391E-3</v>
+        <v>2.215185453160704E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7138649373385878E-4</v>
+        <v>3.7506358773122374E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7934076986376517E-5</v>
+        <v>9.9873365639572097E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2327868852459003E-5</v>
+        <v>5.287295081967212E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.979336198226204E-5</v>
+        <v>3.1988662338849774E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,11 +15161,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8327951260896673E-2</v>
+        <v>5.2397673472340603E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0185226103995921</v>
+        <v>1.0497018739832531</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15173,19 +15173,19 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4723122982442165</v>
+        <v>3.2340163562078486</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7941109551666163</v>
+        <v>3.8320520647182823</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1768935407946204</v>
+        <v>4.0177737868595873</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2902240173926103</v>
+        <v>3.4633937025185375</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15193,23 +15193,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4715014542610865</v>
+        <v>1.5309560584736557</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33784412818423898</v>
+        <v>0.3214439277869458</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1307974358974391E-3</v>
+        <v>2.1729914445290715E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7506358773122374E-4</v>
+        <v>3.6035521174176396E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0181265429276766E-4</v>
+        <v>9.3085855353387573E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5053278688524585E-5</v>
+        <v>5.2327868852459003E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,23 +15262,23 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0871527643049128E-2</v>
+        <v>5.0362812366618631E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98734334681593094</v>
+        <v>1.0185226103995921</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6427913113265178</v>
+        <v>2.4140882170771074</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4042277433766825</v>
+        <v>3.370185465942916</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8320520647182823</v>
+        <v>3.9838165029249475</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15286,31 +15286,31 @@
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3941258284681668</v>
+        <v>3.3248579544177956</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8775029949729651</v>
+        <v>2.6034550906898248</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4863651053142288</v>
+        <v>1.4417741521548018</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34112416826369762</v>
+        <v>0.31160380754856992</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0464094186341741E-3</v>
+        <v>2.0042154100025416E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8609486972331856E-4</v>
+        <v>3.6403230573912887E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0181265429276766E-4</v>
+        <v>1.0084300996616988E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,7 +17000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6531762295081972E-5</v>
+        <v>8.8262397540983601E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0382143183688396E-5</v>
+        <v>5.1863970924385116E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,15 +26485,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2453006794396239E-2</v>
+        <v>8.3245824167419297E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5738082212385955</v>
+        <v>1.7213527419797141</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2069068915008483</v>
+        <v>4.0855538080921701</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26501,19 +26501,19 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9961215383413524</v>
+        <v>5.8162378921911113</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4425715078401113</v>
+        <v>6.12675917902442</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6957238631577418</v>
+        <v>5.3086358336227493</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1334651862797136</v>
+        <v>4.3918067604221962</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26521,19 +26521,19 @@
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.54159728658072936</v>
+        <v>0.53118195414648461</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2597656972453365E-3</v>
+        <v>3.4244003284193436E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4700723004480196E-4</v>
+        <v>5.5828572963335466E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4225894326597786E-4</v>
+        <v>1.481252914418945E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,91 +26558,91 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3554069438868055</v>
+        <v>4.4007757662189597</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9502131077110021</v>
+        <v>4.18961996272379</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0942692023604783</v>
+        <v>4.0524909451935347</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1053821628412788</v>
+        <v>3.9443867839063258</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7301091294992874</v>
+        <v>3.5880097340897903</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2669265640055056</v>
+        <v>3.1083378958498988</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9107312804720609</v>
+        <v>2.7395117933854691</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4324480424928274</v>
+        <v>2.534866907439894</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4886408347842144</v>
+        <v>2.4649394935005549</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0698732139521239</v>
+        <v>2.1134494921405893</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1077839132383591</v>
+        <v>2.2409071077586766</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1856982063433907</v>
+        <v>2.2285550339187514</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0182968582057894</v>
+        <v>1.9783305837858727</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0458367725145958</v>
+        <v>1.9850693436280233</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3629590818647577</v>
+        <v>2.6116916167978905</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7341191460386183</v>
+        <v>2.650421621159885</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6680712794218353</v>
+        <v>2.8927509661099897</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0453397990141911</v>
+        <v>3.1405066677333848</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1686492953588363</v>
+        <v>2.9574060090015801</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1176527125524309</v>
+        <v>3.0546698294705639</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4921148928496599</v>
+        <v>3.526690287828369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2246189113031583</v>
+        <v>3.4261575932596058</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26650,7 +26650,7 @@
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5774093847912352</v>
+        <v>3.7637327902491124</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7148647540983604E-5</v>
+        <v>6.6456393442622939E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0305714546950717E-5</v>
+        <v>3.7934790161835966E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,19 +26687,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0888374248169536E-2</v>
+        <v>6.5328151537098561E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2459315084805549</v>
+        <v>1.3639671250734495</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.07427811301985</v>
+        <v>3.3331646909583643</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5346872493145902</v>
+        <v>4.1858651532134683</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26707,15 +26707,15 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9014073432195362</v>
+        <v>5.305647124103622</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2469086668982001</v>
+        <v>4.5123404585793372</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5134454083377564</v>
+        <v>3.547890951556754</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26723,19 +26723,19 @@
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42494556331718769</v>
+        <v>0.43327782926458352</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5551294758205867E-3</v>
+        <v>2.6604956397719517E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.646741830483679E-4</v>
+        <v>4.5113998354210478E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185002331535156E-4</v>
+        <v>1.1615369388314893E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7840901639344255E-5</v>
+        <v>7.1994426229508206E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7539636097650174E-5</v>
+        <v>3.9120252354393341E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.152262814658796E-2</v>
+        <v>6.2791135943424822E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3508520565631279</v>
+        <v>1.3246219195424846</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3331646909583643</v>
+        <v>3.2360822242314216</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1422623912008278</v>
+        <v>4.5782900113272316</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9408041475932745</v>
+        <v>4.7009592860596197</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2045871788825995</v>
+        <v>5.0024672884405579</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3796245627387691</v>
+        <v>4.2026700349513435</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3412176922427683</v>
+        <v>3.4101087786807636</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8070205718019121</v>
+        <v>1.7697624156822849</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39994876547500019</v>
+        <v>0.42077943034348975</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.581471016808428E-3</v>
+        <v>2.6868371807597926E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3309438420042058E-4</v>
+        <v>4.5113998354210478E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1615369388314893E-4</v>
+        <v>1.2202004205906554E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2686680327868858E-5</v>
+        <v>6.7840901639344255E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0700868611136509E-5</v>
+        <v>4.0305714546950717E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,27 +26889,27 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0888374248169536E-2</v>
+        <v>6.4693897638680137E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3508520565631279</v>
+        <v>1.3377369880528063</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3978863354429931</v>
+        <v>3.1066389352621648</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5346872493145902</v>
+        <v>4.3602762012640293</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0367420922067367</v>
+        <v>4.8448662029798131</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9014073432195362</v>
+        <v>5.1540572062720891</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26917,27 +26917,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5134454083377564</v>
+        <v>3.3756632354617659</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8815368840411661</v>
+        <v>1.9187950401607932</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42911169629088564</v>
+        <v>0.39994876547500019</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5024463938449048E-3</v>
+        <v>2.5551294758205867E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5113998354210478E-4</v>
+        <v>4.376057840358416E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1380715461278228E-4</v>
+        <v>1.1615369388314893E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.3070491803278687E-5</v>
+        <v>8.6531762295081972E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8900315442991676E-5</v>
+        <v>4.9888200603456156E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6110467810211913E-2</v>
+        <v>7.6903285183234943E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5574143856006935</v>
+        <v>1.6721712350660078</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8428476412748127</v>
+        <v>4.0451027802892767</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6683590616432387</v>
+        <v>5.1778279890010346</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.876199107574525</v>
+        <v>5.9961215383413524</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5057339736032498</v>
+        <v>6.4425715078401113</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6957238631577418</v>
+        <v>5.5298289933570306</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4779206184696898</v>
+        <v>4.434863689445943</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2122030196028559</v>
+        <v>2.3053484099019239</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.52076662171223986</v>
+        <v>0.51555895549511743</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.128057992306131E-3</v>
+        <v>3.3256195497149395E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4136798025052567E-4</v>
+        <v>5.7520347901618353E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4079235622199872E-4</v>
+        <v>1.3932576917801955E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,35 +27313,35 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4007757662189597</v>
+        <v>4.5368822332154224</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8305096802046079</v>
+        <v>4.0300153927152644</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0107126880265911</v>
+        <v>4.1778257166943655</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0651333181075398</v>
+        <v>3.9443867839063258</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5169600363850422</v>
+        <v>3.4814351875326683</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3303620312677484</v>
+        <v>3.2986442976366268</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8536581181098635</v>
+        <v>2.7395117933854691</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4580527587295942</v>
+        <v>2.4836574749663605</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27349,63 +27349,63 @@
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1788139094232881</v>
+        <v>2.0698732139521239</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1299711123250784</v>
+        <v>2.2409071077586766</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0571277236173087</v>
+        <v>2.078556137404989</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0982294070456224</v>
+        <v>2.0782462698356645</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0255809628857384</v>
+        <v>2.1268600110300255</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5370718563179508</v>
+        <v>2.5121986028246375</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6783207961194626</v>
+        <v>2.650421621159885</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8084960836019319</v>
+        <v>2.7523261619298935</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3308404051717719</v>
+        <v>3.2356735364525786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1082940706853348</v>
+        <v>3.0479388460118328</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0861612710114974</v>
+        <v>3.1491441540933645</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3538133129348213</v>
+        <v>3.561265682807079</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3925678129335313</v>
+        <v>3.4261575932596058</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3909187282522208</v>
+        <v>3.357997187201228</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8009974713406876</v>
+        <v>3.8382621524322631</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0609918032786889E-5</v>
+        <v>6.9917663934426224E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0305714546950717E-5</v>
+        <v>3.8329944226021757E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,19 +27442,19 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2791135943424822E-2</v>
+        <v>6.2156882045006398E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3639671250734495</v>
+        <v>1.3377369880528063</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.07427811301985</v>
+        <v>3.268443046473736</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3602762012640293</v>
+        <v>4.5782900113272316</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27462,7 +27462,7 @@
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2045871788825995</v>
+        <v>5.0529972610510683</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27470,11 +27470,11 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5823364947757517</v>
+        <v>3.3756632354617659</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9001659621009799</v>
+        <v>1.8070205718019121</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27486,11 +27486,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4211718387126263E-4</v>
+        <v>4.3309438420042058E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1732696351833227E-4</v>
+        <v>1.2202004205906554E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5764139344262287E-5</v>
+        <v>7.2686680327868858E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7539636097650174E-5</v>
+        <v>3.9910560482764925E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,27 +27543,27 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.6596659333935437E-2</v>
+        <v>6.2156882045006398E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2852767140115198</v>
+        <v>1.2983917825218414</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1066389352621648</v>
+        <v>3.3978863354429931</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1858651532134683</v>
+        <v>4.4910844873019506</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8928351752865442</v>
+        <v>4.7968972306730819</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8508773706090249</v>
+        <v>5.1540572062720891</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27571,27 +27571,27 @@
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6167820379947493</v>
+        <v>3.4789998651187588</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8070205718019121</v>
+        <v>1.9560531962804204</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3957826325013023</v>
+        <v>0.39994876547500019</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6868371807597926E-3</v>
+        <v>2.7658618037233159E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6016278321294683E-4</v>
+        <v>4.556513833775258E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2319331169424887E-4</v>
+        <v>1.196735027886989E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2686680327868858E-5</v>
+        <v>6.6456393442622939E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9515406418579133E-5</v>
+        <v>4.0700868611136509E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,39 +27644,39 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5962405435516999E-2</v>
+        <v>6.2156882045006398E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3508520565631279</v>
+        <v>1.2721616455011981</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3655255132006783</v>
+        <v>3.2037214019891072</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1422623912008278</v>
+        <v>4.4474817252893102</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8448662029798131</v>
+        <v>4.8928351752865442</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9519373158300466</v>
+        <v>5.1035272336615787</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4681018266324806</v>
+        <v>4.4238631946856248</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4101087786807636</v>
+        <v>3.5823364947757517</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7883914937420986</v>
+        <v>1.9187950401607932</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27684,15 +27684,15 @@
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5287879348327462E-3</v>
+        <v>2.581471016808428E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6918558288378898E-4</v>
+        <v>4.376057840358416E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1498042424796562E-4</v>
+        <v>1.1146061534241563E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9993032786885244E-5</v>
+        <v>8.5666444672131151E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0876085763920636E-5</v>
+        <v>4.6924545122062717E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,19 +27914,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6903285183234943E-2</v>
+        <v>8.3245824167419297E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6229897281523018</v>
+        <v>1.7213527419797141</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0855538080921701</v>
+        <v>3.8832986690777056</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2323314415168358</v>
+        <v>5.3413383465484356</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27934,35 +27934,35 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3794090420769738</v>
+        <v>6.1899216447875585</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6404255732241717</v>
+        <v>5.25333754368918</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3056929023747017</v>
+        <v>4.1765221153034604</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2820620623271566</v>
+        <v>2.3984938002009915</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.510351289277995</v>
+        <v>0.53118195414648461</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.226838771010535E-3</v>
+        <v>3.4244003284193436E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8084272881045993E-4</v>
+        <v>5.6392497942763095E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5252505257383193E-4</v>
+        <v>1.4959187848587364E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,31 +27987,31 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3554069438868055</v>
+        <v>4.4007757662189597</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8305096802046079</v>
+        <v>3.990114250213133</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0524909451935347</v>
+        <v>3.968934430859647</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9443867839063258</v>
+        <v>4.0248844733738025</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4459103386802936</v>
+        <v>3.5880097340897903</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0766201622187772</v>
+        <v>3.0131846949565344</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8821946992909626</v>
+        <v>2.8536581181098635</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28019,7 +28019,7 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2990301045149404</v>
+        <v>2.3938354696495776</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28027,11 +28027,11 @@
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1077839132383591</v>
+        <v>2.2409071077586766</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.078556137404989</v>
+        <v>2.0356993098296283</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28039,15 +28039,15 @@
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1268600110300255</v>
+        <v>2.0863483917723107</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5370718563179508</v>
+        <v>2.387832335358071</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8178166709173516</v>
+        <v>2.9294133707556624</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -28055,31 +28055,31 @@
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2991181155987075</v>
+        <v>3.2356735364525786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1082940706853348</v>
+        <v>3.0781164583485836</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2436184787161655</v>
+        <v>3.2751099202570995</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3883887079135313</v>
+        <v>3.2846625229774022</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1910291309770833</v>
+        <v>3.3925678129335313</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3250756461502355</v>
+        <v>3.3909187282522208</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6519387469743863</v>
+        <v>3.6146740658828107</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8533155737704921E-5</v>
+        <v>6.9225409836065572E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9515406418579133E-5</v>
+        <v>3.8725098290207549E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,27 +28116,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.342538984184326E-2</v>
+        <v>6.152262814658796E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2721616455011981</v>
+        <v>1.3639671250734495</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1389997575044788</v>
+        <v>3.3978863354429931</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3602762012640293</v>
+        <v>4.2730706772387483</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7489282583663517</v>
+        <v>4.7968972306730819</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8003473979985145</v>
+        <v>5.305647124103622</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28148,23 +28148,23 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8442787279215391</v>
+        <v>1.8070205718019121</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42077943034348975</v>
+        <v>0.43327782926458352</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5551294758205867E-3</v>
+        <v>2.5287879348327462E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6918558288378898E-4</v>
+        <v>4.376057840358416E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1380715461278228E-4</v>
+        <v>1.1263388497759896E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1994426229508206E-5</v>
+        <v>7.1302172131147541E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0305714546950717E-5</v>
+        <v>4.1491176739508092E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,19 +28217,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.152262814658796E-2</v>
+        <v>6.0254120349751097E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3770821935837712</v>
+        <v>1.3639671250734495</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3008038687160504</v>
+        <v>3.1066389352621648</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3166734392513888</v>
+        <v>4.4910844873019506</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28237,11 +28237,11 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9014073432195362</v>
+        <v>5.305647124103622</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5565790905261938</v>
+        <v>4.5123404585793372</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28249,23 +28249,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9560531962804204</v>
+        <v>1.9001659621009799</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.42911169629088564</v>
+        <v>0.40828103142239602</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5551294758205867E-3</v>
+        <v>2.7658618037233159E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.556513833775258E-4</v>
+        <v>4.7369698271921E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1263388497759896E-4</v>
+        <v>1.2319331169424887E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.1302172131147541E-5</v>
+        <v>6.5764139344262287E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7934790161835966E-5</v>
+        <v>4.0700868611136509E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5962405435516999E-2</v>
+        <v>6.2791135943424822E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2852767140115198</v>
+        <v>1.3377369880528063</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2037214019891072</v>
+        <v>3.268443046473736</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4038789632766697</v>
+        <v>4.2730706772387483</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6050213414461592</v>
+        <v>4.7489282583663517</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2045871788825995</v>
+        <v>5.2551171514931116</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6008177224730495</v>
+        <v>4.2026700349513435</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3067721490237707</v>
+        <v>3.547890951556754</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9374241182206067</v>
+        <v>1.7883914937420986</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.43327782926458352</v>
+        <v>0.42077943034348975</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.713178721747634E-3</v>
+        <v>2.6341540987841103E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6918558288378898E-4</v>
+        <v>4.3309438420042058E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.196735027886989E-4</v>
+        <v>1.2319331169424887E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D307CF-11B5-4830-9AA1-F64A0FD5B5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7400B8-6BF3-4FA8-9596-276814690FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26865" yWindow="3390" windowWidth="21600" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5790" yWindow="4275" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -8967,7 +8967,7 @@
       </c>
       <c r="B7" s="4">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>14.5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7240437158469941E-5</v>
+        <v>8.6304644808743149E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7441254457346622E-5</v>
+        <v>5.1223674987047024E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,55 +13510,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515531E-2</v>
+        <v>8.8177314581285166E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>1.7668249364074557</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1387974554805953</v>
+        <v>4.4046521855441965</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>5.7304500346840825</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0036711728402379</v>
+        <v>6.1338127108526965</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2486949761735935</v>
+        <v>6.7625895422389091</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8861614187654476</v>
+        <v>5.5414299240296589</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3065698610497574</v>
+        <v>4.6131397220995147</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.189092084251383</v>
+        <v>2.502047927278952</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26786993982245483</v>
+        <v>0.57400701390526043</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7405028560548391E-3</v>
+        <v>3.6216524075484528E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699915E-4</v>
+        <v>6.1897748955643136E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811915E-5</v>
+        <v>1.5837524001097194E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,99 +13583,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9663386793384232</v>
+        <v>6.2996470922032497</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799547602634105</v>
+        <v>5.6155086157320895</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7558311504481714</v>
+        <v>5.2388077315450392</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8168325671109375</v>
+        <v>5.6883609122240291</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3920064893931934</v>
+        <v>4.926112374195883</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0066948688995097</v>
+        <v>4.1388081671052381</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8186056900489413</v>
+        <v>3.6372113800978827</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6493212176519663</v>
+        <v>3.3316288596569716</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5824703422091801</v>
+        <v>3.19723599752467</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5188478698763828</v>
+        <v>3.0671879314008503</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4933851210653668</v>
+        <v>2.8417813954253579</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>2.9184422368414658</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2851471260987561</v>
+        <v>2.5702942521975123</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2929603098220055</v>
+        <v>2.7192154969452487</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6117382592434768</v>
+        <v>3.1898986380860479</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8127469159083374</v>
+        <v>3.9245036323788751</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8554043686626251</v>
+        <v>4.062359038756064</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.205121327278559</v>
+        <v>4.4967180007249041</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0966879569176409</v>
+        <v>3.9878182710002186</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0401501673978011</v>
+        <v>4.2906250943211486</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240776036134101</v>
+        <v>4.2924068239687667</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1568850287215184</v>
+        <v>4.4045862691786795</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1751272001303561</v>
+        <v>4.4381383275387059</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6070225736813764</v>
+        <v>5.2140451473627527</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3899590163934424E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8403584163847481E-6</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13712,55 +13712,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2081987815224168E-2</v>
+        <v>4.3664727893617174E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25722892456520308</v>
+        <v>0.90073428130576172</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60352205426927685</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85956750520261238</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99595412573123687</v>
+        <v>3.3198470857707898</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.97460849285207796</v>
+        <v>3.2818449249100592</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88316539414222694</v>
+        <v>2.8572998045777931</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66456616788661327</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37902310185512833</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8720961907007142E-2</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.274251078954057E-4</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8250255936758525E-5</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3513874919996339E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3490778688524588E-5</v>
+        <v>4.6786202185792349E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548595E-6</v>
+        <v>2.5350492212977353E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,55 +13813,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2717881910762282E-2</v>
+        <v>4.1969010305515531E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26762201242642342</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63528637291502832</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86807807456105412</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95801301617957058</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94477353898925931</v>
+        <v>3.4144447198559198</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90048236265481973</v>
+        <v>3.0016078755160658</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66456616788661327</v>
+        <v>2.3979191624774709</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36787536356527162</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0360981946736451E-2</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4852211221122194E-4</v>
+        <v>1.6877603452652985E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2846623433464695E-5</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5453163573191916E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3081967213114751E-5</v>
+        <v>4.4060792349726766E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548595E-6</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,55 +13914,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2081987815224168E-2</v>
+        <v>4.0273292717413894E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24943410866928784</v>
+        <v>0.84010793544864304</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60352205426927685</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83403579712728737</v>
+        <v>2.8368564528139024</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.99595412573123687</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0243334159567759</v>
+        <v>3.4475946685923855</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83987297286074525</v>
+        <v>2.7418533478271749</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71252455113616275</v>
+        <v>2.1695459089081877</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36415945080198603</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.954097192687179E-2</v>
+        <v>0.28700350695263022</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2215085681645164E-4</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8250255936758525E-5</v>
+        <v>2.9723176478699915E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.424110816494468E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>9.0846994535519115E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.587318277406967E-5</v>
+        <v>5.3837127792508603E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,55 +14184,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-2</v>
+        <v>8.0546585434827789E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88341246820372787</v>
+        <v>1.6455722446932184</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0964450306195932</v>
+        <v>4.0658327866561814</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9786992754545976</v>
+        <v>5.5035015184589708</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>6.1338127108526965</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1823950787006625</v>
+        <v>6.895189337184771</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0016078755160658</v>
+        <v>5.656876380780278</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3522445117636144</v>
+        <v>4.4304411192440885</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014784601290016</v>
+        <v>2.502047927278952</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27880340675398363</v>
+        <v>0.57400701390526043</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652985E-3</v>
+        <v>3.4458440382499839E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-4</v>
+        <v>6.0059201956960662E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8379583066654464E-5</v>
+        <v>1.6483953552162383E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.905177057084023</v>
+        <v>6.1773238476944492</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6965561174555082</v>
+        <v>5.7823059013478941</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.783116607383302</v>
+        <v>5.6208041286368644</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5980494551023203</v>
+        <v>5.6336651342218751</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4630561870979415</v>
+        <v>4.926112374195883</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1321132982057289</v>
+        <v>4.1388081671052381</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8002359356040025</v>
+        <v>3.6739508889877603</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5833483689458874</v>
+        <v>3.265656010950893</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5663226856560251</v>
+        <v>3.2295313106309798</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5041017740523399</v>
+        <v>3.0966801230489356</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3918929283716039</v>
+        <v>2.9287747034485836</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4592211184207329</v>
+        <v>2.7739648983839671</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3392585840397564</v>
+        <v>2.6785171680795128</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2796308220918817</v>
+        <v>2.585920619644011</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6956829602457413</v>
+        <v>3.4920995616942001</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8874993660488877</v>
+        <v>3.6254938318166747</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9725878024728962</v>
+        <v>3.9061144603423688</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0754083080268786</v>
+        <v>4.3237673083893311</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0350206640671216</v>
+        <v>4.0700413281342431</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1453125471605743</v>
+        <v>4.4168199500364764</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1240776036134101</v>
+        <v>4.2924068239687667</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1795890816554291</v>
+        <v>4.7224430102534303</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1970981819498543</v>
+        <v>4.5260222548167004</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4332210687692846</v>
+        <v>4.7174694190424908</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,11 +14362,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3490778688524588E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6835512480570542E-6</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,55 +14386,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2717881910762282E-2</v>
+        <v>4.4512586687667985E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26502374046111832</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66705069156077967</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.88509921327793761</v>
+        <v>2.8935935818701801</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9011013518520713</v>
+        <v>3.1301415380124586</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.9944984620939572</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90914084691111618</v>
+        <v>2.7418533478271749</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.65086377267245621</v>
+        <v>2.3979191624774709</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36787536356527162</v>
+        <v>1.189092084251383</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.8720961907007142E-2</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3797361005331382E-4</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4685170432147161E-5</v>
+        <v>3.1255298977601978E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4725930328243572E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2945696721311473E-5</v>
+        <v>4.3152322404371574E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548595E-6</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3099418368085151E-2</v>
+        <v>4.0697222114439296E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25203238063459293</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.60987491799842719</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85105693584417064</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94852773879165408</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98455347747301769</v>
+        <v>3.4144447198559198</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83987297286074525</v>
+        <v>2.8861614187654476</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71252455113616275</v>
+        <v>2.3750818371205424</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36415945080198603</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2821012006330436E-2</v>
+        <v>0.27333667328821926</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3269935897435976E-4</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.9169529436099751E-5</v>
+        <v>2.9416751978919505E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3513874919996339E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14564,11 +14564,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4308401639344261E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9971655847124436E-6</v>
+        <v>2.6918563896254302E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,55 +14588,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3226597187192775E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27022028439172852</v>
+        <v>0.82278612234660919</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66705069156077967</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83403579712728737</v>
+        <v>2.921962146398319</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92007190662790439</v>
+        <v>3.0669063554263483</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0143884313358364</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83987297286074525</v>
+        <v>2.7995765762024845</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71252455113616275</v>
+        <v>2.2608952103359008</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.37902310185512833</v>
+        <v>1.2014784601290016</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7900951887142481E-2</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1160235465854353E-4</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3765896932805935E-5</v>
+        <v>3.1868147977162799E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.424110816494468E-5</v>
+        <v>8.0803693883148942E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14834,11 +14834,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5423497267759557E-5</v>
+        <v>9.4480874316939882E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5611837493523512E-5</v>
+        <v>5.0700984425954706E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1545080908490115E-2</v>
+        <v>8.6481596993183529E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>1.7841467495094896</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>4.3622997606831939</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7801193237576243</v>
+        <v>5.9006614218529174</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0352887641332931</v>
+        <v>6.3235182586110277</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2486949761735935</v>
+        <v>6.5636898498201184</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8572998045777931</v>
+        <v>6.0032157510321316</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2837325356928293</v>
+        <v>4.6131397220995147</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>2.42772967201324</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28700350695263022</v>
+        <v>0.51933967924761659</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8108262037742264E-3</v>
+        <v>3.5161673859693716E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-4</v>
+        <v>6.4349144953886419E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.918762000548597E-5</v>
+        <v>1.6968775715461279E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2109851683560251</v>
+        <v>6.4219703367120502</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7799547602634105</v>
+        <v>5.671107710937358</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7558311504481714</v>
+        <v>5.6208041286368644</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7074410111066287</v>
+        <v>5.5242735782175654</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2972735591201952</v>
+        <v>4.8313794439228852</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1739194413078025</v>
+        <v>4.055195880901092</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8369754444938802</v>
+        <v>3.600471871208005</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7152940663580449</v>
+        <v>3.1996831622448143</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5340273725497153</v>
+        <v>3.2618266237372895</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4746095824042549</v>
+        <v>2.9492191648085098</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4933851210653668</v>
+        <v>3.0447657808128836</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3725347153462339</v>
+        <v>3.0051286399159647</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3663143130102569</v>
+        <v>2.7867400839615137</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3329487730123768</v>
+        <v>2.585920619644011</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6285271994439297</v>
+        <v>3.3577880400905769</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9622518161894376</v>
+        <v>3.8497511822383252</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9139960855677607</v>
+        <v>3.8279921711355214</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1186459811107721</v>
+        <v>4.1940542891376511</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9733533712166029</v>
+        <v>3.9878182710002186</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1873774990656836</v>
+        <v>4.0382353828904929</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2789582622102214</v>
+        <v>4.2924068239687667</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2477012404571615</v>
+        <v>4.5408105867821442</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1531562183108575</v>
+        <v>4.3502544002607122</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5573650008493503</v>
+        <v>4.9160997103705952</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3490778688524588E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5267440797293578E-6</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3353776006300395E-2</v>
+        <v>4.4512586687667985E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.25463065259989803</v>
+        <v>0.86609065510169392</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.64163923664417855</v>
+        <v>2.1599736679110961</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.842546366485729</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.92007190662790439</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0342784005777155</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90048236265481973</v>
+        <v>2.7995765762024845</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66456616788661327</v>
+        <v>2.3750818371205424</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.38273901461841392</v>
+        <v>1.2386375877618574</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.5281042065924406E-2</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2215085681645164E-4</v>
+        <v>1.7580836929846858E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2846623433464695E-5</v>
+        <v>3.0642449978041152E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3271463838346893E-5</v>
+        <v>8.4843878577306394E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3490778688524588E-5</v>
+        <v>4.3152322404371574E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1539727530401391E-6</v>
+        <v>2.7179909176800464E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,55 +15161,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3099418368085151E-2</v>
+        <v>4.0273292717413894E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26502374046111832</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.62893350918587798</v>
+        <v>2.0540926057585915</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87658864391949576</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95801301617957058</v>
+        <v>3.3198470857707898</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96466350823113856</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.89182387839852328</v>
+        <v>2.8572998045777931</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66456616788661327</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36787536356527162</v>
+        <v>1.1767057083737644</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.7900951887142481E-2</v>
+        <v>0.28153677348686579</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.274251078954057E-4</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.2846623433464695E-5</v>
+        <v>3.0948874477821568E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3513874919996339E-5</v>
+        <v>8.2419767760811915E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3081967213114751E-5</v>
+        <v>4.4969262295081965E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9971655847124436E-6</v>
+        <v>2.5089146932431191E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,55 +15262,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2972239548977528E-2</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.24683583670398274</v>
+        <v>0.90939518785677864</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.63528637291502832</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80850408905196214</v>
+        <v>2.8084878882857636</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.95801301617957058</v>
+        <v>3.2249943118916242</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94477353898925931</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82255600434815257</v>
+        <v>3.0016078755160658</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.71937574874324128</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.39017084014498504</v>
+        <v>1.2634103395170946</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6101052085789054E-2</v>
+        <v>0.26513657308957267</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0105385250063541E-4</v>
+        <v>1.7053411821951452E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.7330982437417272E-5</v>
+        <v>3.0948874477821568E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.424110816494468E-5</v>
+        <v>7.9995656944317449E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17025,7 +17025,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17036,7 +17036,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17047,7 +17047,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="5">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17058,7 +17058,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="5">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -17069,7 +17069,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5">
-        <v>1.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7687841530054644E-5</v>
+        <v>1.1076065573770492E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839627E-5</v>
+        <v>6.3224650269726605E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0740311873474608E-2</v>
+        <v>0.11099443222322572</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>2.2077031992374745</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.831571946202494</v>
+        <v>5.3395356699818457</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5972278660428243</v>
+        <v>7.6304833522120514</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8774919281274078</v>
+        <v>7.9148804306105855</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>8.0847956176817082</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6128216089932601</v>
+        <v>7.078181111496999</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8130526962181386</v>
+        <v>5.6835146311346065</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5368989399346158</v>
+        <v>3.2290401970343448</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34370597033007827</v>
+        <v>0.69435549561631982</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534251E-3</v>
+        <v>4.5219645362460561E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368378E-4</v>
+        <v>7.2182397366736756E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7772469598610213E-5</v>
+        <v>1.9358948980524821E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26558,99 +26558,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3591787612720196</v>
+        <v>4.4461445885511139</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0349582676086979</v>
+        <v>4.1098176777195272</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1306911155141264</v>
+        <v>4.1360474595274219</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.931944547219425</v>
+        <v>4.1053821628412788</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7407175937663342</v>
+        <v>3.6235345829421646</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6651810156338742</v>
+        <v>3.1717733631121412</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4981705120076785</v>
+        <v>2.8821946992909626</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2162240212464137</v>
+        <v>2.4324480424928274</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1732163935411295</v>
+        <v>2.4886408347842144</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0785128851645276</v>
+        <v>2.1788139094232881</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1093599543359784</v>
+        <v>2.2852815059321157</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0285638618086543</v>
+        <v>2.2071266201310711</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0191399977078739</v>
+        <v>2.0782462698356645</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.96215095737072553</v>
+        <v>1.9243019147414511</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.243662674665662</v>
+        <v>2.4375788423446973</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4089083354586758</v>
+        <v>2.6783207961194626</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3480781201289271</v>
+        <v>2.9489208877820285</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>3.0136175094411266</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5390582291742918</v>
+        <v>2.8668731719913279</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6218092393580827</v>
+        <v>3.0546698294705639</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.797920538892894</v>
+        <v>3.5958410777857881</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7130787966298029</v>
+        <v>3.5269269342378298</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5637731999221405</v>
+        <v>3.1933894819462654</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9563957573077071</v>
+        <v>3.8755268335238386</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.713328893442623E-5</v>
+        <v>5.8841598360655737E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9776401206912312E-6</v>
+        <v>3.2600210295327782E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,55 +26687,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6649164833483859E-2</v>
+        <v>5.12688567888233E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32131917850287994</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81711076161843399</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0464662883033671</v>
+        <v>3.5608922310322906</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.139263092284857</v>
+        <v>3.7975436409495233</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379843289575116</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1391447726315485</v>
+        <v>3.5759560823708805</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82669303725594268</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47038422101029154</v>
+        <v>1.6300443302336838</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10519485758587244</v>
+        <v>0.35759308024240466</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7170929518994816E-4</v>
+        <v>2.1292745631838225E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1165714592667093E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9038423470787234E-5</v>
+        <v>1.0070564368656853E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7998606557377052E-5</v>
+        <v>5.5380327868852458E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.7800630885983353E-6</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,55 +26788,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.649060135887925E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31148287712013872</v>
+        <v>1.0929223758601359</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84138137830016957</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1009697408191674</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2471932799750014</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2632493152627671</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1059657986714062</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8697499662796897</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46572695149533816</v>
+        <v>1.5679474033676386</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10519485758587244</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3219698370818654E-4</v>
+        <v>2.2390309839664937E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0827359605010515E-4</v>
+        <v>3.8346898601078906E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0505010514766385E-5</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441034836065572E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9776401206912312E-6</v>
+        <v>3.3917390509280424E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,55 +26889,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5856347460460815E-2</v>
+        <v>5.549721611161286E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32787671275804076</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80902055605785539</v>
+        <v>2.6158331312537326</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1009697408191674</v>
+        <v>3.5972278660428243</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2232087938216361</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2000868494996286</v>
+        <v>4.2950476718934079</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1391447726315485</v>
+        <v>3.8708802953499215</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90419550949868732</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44244060392057122</v>
+        <v>1.5679474033676386</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10519485758587244</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3878236895514666E-4</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1616854576209198E-4</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0798327923562218E-5</v>
+        <v>1.0266109307854074E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,11 +27216,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-5</v>
+        <v>1.1537568306010929E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375147E-5</v>
+        <v>6.7176190911584523E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,55 +27240,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264161E-2</v>
+        <v>0.103594803408344</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1038515996187372</v>
+        <v>2.0765525141342582</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6158331312537326</v>
+        <v>5.2316662625074652</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7425704060849583</v>
+        <v>7.267127002106716</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9574402153052928</v>
+        <v>7.5950872818990467</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>8.4216621017517799</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8708802953499215</v>
+        <v>7.4468363777208015</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7843480768689739</v>
+        <v>5.4538776763412891</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.490326244785082</v>
+        <v>2.9496040261371412</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36106485772048624</v>
+        <v>0.72212971544097249</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099598E-3</v>
+        <v>4.5219645362460561E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649078E-4</v>
+        <v>7.2182397366736756E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854074E-4</v>
+        <v>1.9554493919722043E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,99 +27313,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1550190607773256</v>
+        <v>4.4915134108832682</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9950571251065665</v>
+        <v>3.9103119652088703</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1098019869306546</v>
+        <v>4.3867170025290845</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0325666590537699</v>
+        <v>3.86388909443885</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7407175937663342</v>
+        <v>3.5169600363850422</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6017455483716314</v>
+        <v>3.1717733631121412</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.355487606102185</v>
+        <v>2.9392678616531596</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2802358118383304</v>
+        <v>2.63728577238696</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.185067064182959</v>
+        <v>2.3701341283659181</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0785128851645276</v>
+        <v>2.1134494921405893</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1426407529660578</v>
+        <v>2.1965327095852376</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0392780687024945</v>
+        <v>2.2499834477064318</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.94919901747301971</v>
+        <v>2.0182968582057894</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98240676699958296</v>
+        <v>1.9243019147414511</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2312260479190054</v>
+        <v>2.5121986028246375</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.394958747978887</v>
+        <v>2.8736150208365068</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.404248041800966</v>
+        <v>2.7804111227659121</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6336979130128215</v>
+        <v>3.2356735364525786</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.4937918106691654</v>
+        <v>2.8970507843280786</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6533006808990165</v>
+        <v>3.2751099202570995</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8152082363822488</v>
+        <v>3.3538133129348213</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5955145654885416</v>
+        <v>3.4261575932596058</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6131555114986291</v>
+        <v>3.2921541050992431</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8632340545787685</v>
+        <v>3.5774093847912352</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8171670081967214E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0076428636737679E-5</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,55 +27442,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.55392205112516E-2</v>
+        <v>5.2854491534869388E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31804041137529954</v>
+        <v>1.0819931521015345</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.81711076161843399</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1118704313223275</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1632475784382224</v>
+        <v>4.1573109332500042</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3264117810259055</v>
+        <v>4.2108310508758899</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0838464826979781</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.8697499662796897</v>
+        <v>3.0139850316622914</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.44709787343552465</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10311179109902349</v>
+        <v>0.35759308024240466</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.256115984612262E-4</v>
+        <v>2.1073232790272882E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1504069580323671E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8451788653195571E-5</v>
+        <v>1.0168336838255463E-4</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27519,11 +27519,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7825543032786885E-5</v>
+        <v>5.9995355191256829E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0175217152784127E-5</v>
+        <v>3.2600210295327782E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,55 +27543,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6014910935065425E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34099178126836238</v>
+        <v>1.0929223758601359</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84947158386074828</v>
+        <v>2.8046045943338989</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0682676693096871</v>
+        <v>3.4518853260006899</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1632475784382224</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3137792878732779</v>
+        <v>4.0845061193496139</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1170254566581201</v>
+        <v>3.8340147687275419</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.85252719467019089</v>
+        <v>2.956575792963962</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45641241246543135</v>
+        <v>1.58347163508415</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10102872461217452</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3219698370818654E-4</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1504069580323671E-4</v>
+        <v>3.6843098655938556E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0798327923562218E-5</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6960225409836064E-5</v>
+        <v>5.6534084699453551E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0076428636737679E-5</v>
+        <v>3.3588095455792262E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27644,55 +27644,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5856347460460815E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34099178126836238</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80093035049727679</v>
+        <v>2.6428004831223273</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0573669788065272</v>
+        <v>3.8152416761060257</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2352010368983186</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2379843289575116</v>
+        <v>4.2950476718934079</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1391447726315485</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82669303725594268</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.46572695149533816</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10831945731614588</v>
+        <v>0.33329063789583346</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3878236895514666E-4</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1278499588552619E-4</v>
+        <v>3.9098798573649078E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.96250582883789E-5</v>
+        <v>1.0168336838255463E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7110963114754101E-5</v>
+        <v>1.1652943989071037E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2929505348815944E-5</v>
+        <v>6.5200420590655564E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,55 +27914,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.549721611161286E-2</v>
+        <v>0.10148062374694922</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1038515996187372</v>
+        <v>2.1858447517202717</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7237025387281131</v>
+        <v>5.1777315587702741</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5972278660428243</v>
+        <v>7.0491131920435146</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7975436409495233</v>
+        <v>8.3146218665000085</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0423978088408541</v>
+        <v>8.4216621017517799</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7971492421051609</v>
+        <v>7.5942984842103218</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7269388381706445</v>
+        <v>5.6835146311346065</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.490326244785082</v>
+        <v>2.980652489570164</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.3367624153739151</v>
+        <v>0.66658127579166693</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2829335522795624E-3</v>
+        <v>4.4780619679329874E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8722848587363992E-4</v>
+        <v>7.2934297339306928E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3861570814665813E-5</v>
+        <v>1.9163404041327601E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2911255277737883</v>
+        <v>4.5368822332154224</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9352054113533694</v>
+        <v>4.18961996272379</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1306911155141264</v>
+        <v>3.968934430859647</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.072815503787508</v>
+        <v>3.9443867839063258</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8117672914710823</v>
+        <v>3.5880097340897903</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5383100811093886</v>
+        <v>3.2986442976366268</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3840241872832837</v>
+        <v>2.9678044428342583</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.31864288619348</v>
+        <v>2.6628904886237272</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1258137109738111</v>
+        <v>2.3701341283659181</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1329832329001097</v>
+        <v>2.2877546048944524</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0982663547926188</v>
+        <v>2.1077839132383591</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.071420689384015</v>
+        <v>2.2285550339187514</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.98916529189293634</v>
+        <v>2.0582631326257057</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0330462910717266</v>
+        <v>2.1268600110300255</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2685359281589754</v>
+        <v>2.4873253493313241</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3531099855395203</v>
+        <v>2.8178166709173516</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.3761630809649468</v>
+        <v>2.8084960836019319</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6019756234397571</v>
+        <v>3.0136175094411266</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5390582291742918</v>
+        <v>2.9272283966648294</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6375549601285497</v>
+        <v>3.0546698294705639</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7806328414035395</v>
+        <v>3.2846625229774022</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6626941261406909</v>
+        <v>3.3589780326074563</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5637731999221405</v>
+        <v>3.1604679408952734</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7700723518498298</v>
+        <v>3.7637327902491124</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7998606557377052E-5</v>
+        <v>5.8841598360655737E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.4836975404589914E-6</v>
+        <v>3.1283030081375147E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,55 +28116,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5063530087437774E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31476164424771913</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.80093035049727679</v>
+        <v>2.6428004831223273</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0682676693096871</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1872320645915879</v>
+        <v>3.9974143588942352</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2000868494996286</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.072786824711264</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83530442306069208</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.4890132990701051</v>
+        <v>1.5213747082181044</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10831945731614588</v>
+        <v>0.34370597033007827</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.9146545093082897E-4</v>
+        <v>2.1073232790272882E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1504069580323671E-4</v>
+        <v>3.9098798573649078E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9038423470787234E-5</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7652479508196722E-5</v>
+        <v>5.4803449453551915E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.9776401206912312E-6</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,55 +28217,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5063530087437774E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31804041137529954</v>
+        <v>1.0929223758601359</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84947158386074828</v>
+        <v>2.6158331312537326</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0573669788065272</v>
+        <v>3.5972278660428243</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2352010368983186</v>
+        <v>3.9574402153052928</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2885143015680223</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1502044306182624</v>
+        <v>3.5022250291261199</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82669303725594268</v>
+        <v>2.7269388381706445</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.45175514295047803</v>
+        <v>1.6145200985171724</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10831945731614588</v>
+        <v>0.36453663519856788</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3219698370818654E-4</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1278499588552619E-4</v>
+        <v>3.6091198683368378E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0505010514766385E-5</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28294,11 +28294,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6441034836065572E-5</v>
+        <v>5.7687841530054644E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.3849090244125434E-6</v>
+        <v>3.4246685562768586E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.538065703664699E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.31476164424771913</v>
+        <v>1.1147808233773386</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.7685695282549625</v>
+        <v>2.561898427516542</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1445725028318079</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2591855230516842</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2758818084153947</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.06172716672455</v>
+        <v>3.7971492421051609</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90419550949868732</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.47969876004019829</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10623639082929692</v>
+        <v>0.32981886041775188</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.8488006568386862E-4</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.094014460089604E-4</v>
+        <v>3.7594998628508728E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9918375697174726E-5</v>
+        <v>1.0168336838255463E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>

--- a/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
+++ b/data/IEEE9/ieee18_1/ieee18_1_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\IEEE9\ieee18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7400B8-6BF3-4FA8-9596-276814690FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E846008E-6E1A-4D1F-9EBD-15CBF5CC8F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="4275" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -8898,7 +8898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -13486,11 +13486,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6304644808743149E-5</v>
+        <v>9.0846994535519115E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1223674987047024E-5</v>
+        <v>5.2791746670323976E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13510,7 +13510,7 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.8177314581285166E-2</v>
+        <v>8.3090161816980229E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13518,47 +13518,47 @@
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4046521855441965</v>
+        <v>4.0658327866561814</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7304500346840825</v>
+        <v>5.6737129056278048</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1338127108526965</v>
+        <v>6.0705775282665861</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.7625895422389091</v>
+        <v>6.629989747293048</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5414299240296589</v>
+        <v>5.7723228375308953</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6131397220995147</v>
+        <v>4.5217904206718016</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.502047927278952</v>
+        <v>2.6011389342999003</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57400701390526043</v>
+        <v>0.51933967924761659</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6216524075484528E-3</v>
+        <v>3.4106823643902905E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1897748955643136E-4</v>
+        <v>6.0672050956521472E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5837524001097194E-4</v>
+        <v>1.6160738776629788E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13583,47 +13583,47 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.2996470922032497</v>
+        <v>6.3608087144576508</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6155086157320895</v>
+        <v>5.8379049965531626</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2388077315450392</v>
+        <v>5.5116623008963428</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6883609122240291</v>
+        <v>5.4695778002154114</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.926112374195883</v>
+        <v>4.7366465136498874</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1388081671052381</v>
+        <v>4.1806143102073117</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6372113800978827</v>
+        <v>3.5637323623181274</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3316288596569716</v>
+        <v>3.463574557069129</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.19723599752467</v>
+        <v>3.1003500582057404</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0671879314008503</v>
+        <v>2.8312503982161692</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8417813954253579</v>
+        <v>2.8997769341075079</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13631,35 +13631,35 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5702942521975123</v>
+        <v>2.7326286260205137</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7192154969452487</v>
+        <v>2.6392385705645061</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1898986380860479</v>
+        <v>3.3913659204914826</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9245036323788751</v>
+        <v>3.8497511822383252</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.062359038756064</v>
+        <v>3.7889310265320972</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4967180007249041</v>
+        <v>4.1508166160537572</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9878182710002186</v>
+        <v>4.2755989709693063</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2906250943211486</v>
+        <v>4.4168199500364764</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -13671,11 +13671,11 @@
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4381383275387059</v>
+        <v>4.3502544002607122</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2140451473627527</v>
+        <v>4.7671269918745161</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -13688,11 +13688,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6331967213114749E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6657218615708143E-5</v>
+        <v>2.5350492212977353E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13716,51 +13716,51 @@
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90073428130576172</v>
+        <v>0.87475156165271084</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.2235023052025991</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9786992754545976</v>
+        <v>2.7517507592294854</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3198470857707898</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2818449249100592</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8572998045777931</v>
+        <v>2.9438846471407567</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>2.3522445117636144</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.275796715394713</v>
+        <v>1.189092084251383</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.2596698396238083</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7229220191249919E-3</v>
+        <v>1.7405028560548391E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0336025478260736E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>8.4035841638474901E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13789,11 +13789,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6786202185792349E-5</v>
+        <v>4.769467213114754E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5350492212977353E-5</v>
+        <v>2.7179909176800464E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13813,47 +13813,47 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1969010305515531E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.87475156165271084</v>
+        <v>0.83144702889762612</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9786992754545976</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4144447198559198</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0016078755160658</v>
+        <v>2.9438846471407567</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3979191624774709</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2634103395170946</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.28700350695263022</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6877603452652985E-3</v>
+        <v>1.7932453668443797E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.1611730821980422E-5</v>
+        <v>7.918762000548597E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13890,11 +13890,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4060792349726766E-5</v>
+        <v>4.6331967213114749E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6134528054615829E-5</v>
+        <v>2.4827801651885036E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13914,15 +13914,15 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-2</v>
+        <v>4.1969010305515531E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84010793544864304</v>
+        <v>0.84876884199965996</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1176212430500945</v>
+        <v>2.181149880341597</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -13930,39 +13930,39 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.256611903184679</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4475946685923855</v>
+        <v>3.314994873646524</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7418533478271749</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1695459089081877</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.275796715394713</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28700350695263022</v>
+        <v>0.284270140219748</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>1.8284070407040731E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9723176478699915E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317449E-5</v>
+        <v>8.1611730821980422E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14160,11 +14160,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.0846994535519115E-5</v>
+        <v>9.5389344262295081E-5</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3837127792508603E-5</v>
+        <v>5.0700984425954706E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14184,43 +14184,43 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0546585434827789E-2</v>
+        <v>8.1394444228878593E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6455722446932184</v>
+        <v>1.8014685626115234</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0658327866561814</v>
+        <v>4.0234803617951789</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5035015184589708</v>
+        <v>5.4467643894026914</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1338127108526965</v>
+        <v>6.197047893438806</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.895189337184771</v>
+        <v>6.9614892346577006</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.656876380780278</v>
+        <v>5.8300460659062043</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4304411192440885</v>
+        <v>4.3847664685302314</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.502047927278952</v>
+        <v>2.5268206790341892</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.57400701390526043</v>
+        <v>0.51933967924761659</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14232,7 +14232,7 @@
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6483953552162383E-4</v>
+        <v>1.599913138886349E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14257,99 +14257,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.1773238476944492</v>
+        <v>6.2384854699488486</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.7823059013478941</v>
+        <v>5.6155086157320895</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6208041286368644</v>
+        <v>5.6753750425071248</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6336651342218751</v>
+        <v>5.1960989102046407</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.926112374195883</v>
+        <v>4.9734788393323823</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1388081671052381</v>
+        <v>4.055195880901092</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6739508889877603</v>
+        <v>3.7474299067675156</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.265656010950893</v>
+        <v>3.3976017083630508</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2295313106309798</v>
+        <v>3.2618266237372895</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0966801230489356</v>
+        <v>2.9787113564565946</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9287747034485836</v>
+        <v>3.0157680114718084</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7739648983839671</v>
+        <v>3.0340241076074643</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6785171680795128</v>
+        <v>2.6244057101385128</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.585920619644011</v>
+        <v>2.7991924233259913</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4920995616942001</v>
+        <v>3.2570543988878593</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6254938318166747</v>
+        <v>3.5507413816761249</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9061144603423688</v>
+        <v>4.0232978941526394</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3237673083893311</v>
+        <v>4.1508166160537572</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0700413281342431</v>
+        <v>4.234487442402294</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4168199500364764</v>
+        <v>4.2906250943211486</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2924068239687667</v>
+        <v>4.3809100574526587</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7224430102534303</v>
+        <v>4.7678511161212516</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5260222548167004</v>
+        <v>4.5699642184556977</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.7174694190424908</v>
+        <v>4.8664421375385691</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3606557377049174E-5</v>
+        <v>4.4515027322404366E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14386,39 +14386,39 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-2</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.84876884199965996</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8935935818701801</v>
+        <v>2.7517507592294854</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1301415380124586</v>
+        <v>3.0352887641332931</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2486949761735935</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7418533478271749</v>
+        <v>2.7707149620148295</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3979191624774709</v>
+        <v>2.3294071864066859</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.189092084251383</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14426,15 +14426,15 @@
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339203E-3</v>
+        <v>1.7053411821951452E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1255298977601978E-4</v>
+        <v>3.0642449978041152E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317449E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14463,11 +14463,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4827801651885036E-5</v>
+        <v>2.6657218615708143E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14487,55 +14487,55 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0697222114439296E-2</v>
+        <v>4.0273292717413894E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82278612234660919</v>
+        <v>0.90073428130576172</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.1387974554805953</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>2.6950136301732068</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0352887641332931</v>
+        <v>3.1301415380124586</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4144447198559198</v>
+        <v>3.2486949761735935</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8861614187654476</v>
+        <v>2.9438846471407567</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3750818371205424</v>
+        <v>2.2380578849789727</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.27333667328821926</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.8459878776339203E-3</v>
+        <v>1.8284070407040731E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9416751978919505E-4</v>
+        <v>3.0336025478260736E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9995656944317449E-5</v>
+        <v>8.0803693883148942E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6918563896254302E-5</v>
+        <v>2.6395873335161988E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14588,31 +14588,31 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3240798496591765E-2</v>
+        <v>4.1969010305515531E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.82278612234660919</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.2023260927720982</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.921962146398319</v>
+        <v>2.8368564528139024</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0669063554263483</v>
+        <v>3.0036711728402379</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.1823950787006625</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7995765762024845</v>
+        <v>2.9727462613284112</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14620,23 +14620,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2014784601290016</v>
+        <v>1.2881830912723315</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.2596698396238083</v>
+        <v>0.26240320635669045</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1868147977162799E-4</v>
+        <v>3.217457247694321E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0803693883148942E-5</v>
+        <v>7.7571546127822971E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.0700984425954706E-5</v>
+        <v>5.4359818353600928E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14858,55 +14858,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.6481596993183529E-2</v>
+        <v>8.3938020611031061E-2</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7841467495094896</v>
+        <v>1.7495031233054217</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3622997606831939</v>
+        <v>4.0658327866561814</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.9006614218529174</v>
+        <v>5.7871871637403602</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3235182586110277</v>
+        <v>6.6396941715415796</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5636898498201184</v>
+        <v>6.2984902599283954</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.0032157510321316</v>
+        <v>5.8877692942815134</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.6131397220995147</v>
+        <v>4.3847664685302314</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.42772967201324</v>
+        <v>2.5268206790341892</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.51933967924761659</v>
+        <v>0.54120661311067408</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5161673859693716E-3</v>
+        <v>3.5513290598290651E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4349144953886419E-4</v>
+        <v>6.3123446954764767E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6968775715461279E-4</v>
+        <v>1.6645560939928682E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -14931,99 +14931,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.4219703367120502</v>
+        <v>5.8715157364224453</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.671107710937358</v>
+        <v>5.7267068061426265</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6208041286368644</v>
+        <v>5.184236817674778</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5242735782175654</v>
+        <v>5.5789693562197193</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.8313794439228852</v>
+        <v>4.9734788393323823</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.055195880901092</v>
+        <v>4.0133897377990193</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.600471871208005</v>
+        <v>3.4902533445383721</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1996831622448143</v>
+        <v>3.3316288596569716</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2618266237372895</v>
+        <v>3.1649406844183603</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9492191648085098</v>
+        <v>3.0376957397527655</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0447657808128836</v>
+        <v>2.8417813954253579</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0051286399159647</v>
+        <v>2.976233172224465</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7867400839615137</v>
+        <v>2.8408515419025138</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.585920619644011</v>
+        <v>2.6658975460247536</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3577880400905769</v>
+        <v>3.3913659204914826</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8497511822383252</v>
+        <v>3.8871274073085997</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8279921711355214</v>
+        <v>4.0232978941526394</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1940542891376511</v>
+        <v>4.2372919622215441</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9878182710002186</v>
+        <v>4.1522643852682686</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0382353828904929</v>
+        <v>4.2485601424160393</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2924068239687667</v>
+        <v>4.3809100574526587</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5408105867821442</v>
+        <v>4.5862186926499655</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3502544002607122</v>
+        <v>4.2184285093437204</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.9160997103705952</v>
+        <v>5.1643875745307266</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -15036,11 +15036,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4515027322404366E-5</v>
+        <v>4.7240437158469941E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4827801651885036E-5</v>
+        <v>2.6134528054615829E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15060,55 +15060,55 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4512586687667985E-2</v>
+        <v>4.2816869099566349E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.86609065510169392</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1599736679110961</v>
+        <v>2.1176212430500945</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6950136301732068</v>
+        <v>2.8652250173420413</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.4807446173288503</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7995765762024845</v>
+        <v>3.0016078755160658</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3750818371205424</v>
+        <v>2.3065698610497574</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2386375877618574</v>
+        <v>1.251023963639476</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.284270140219748</v>
+        <v>0.28700350695263022</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7580836929846858E-3</v>
+        <v>1.7229220191249919E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0642449978041152E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4843878577306394E-5</v>
+        <v>7.8379583066654464E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15137,11 +15137,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3152322404371574E-5</v>
+        <v>4.587773224043715E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7179909176800464E-5</v>
+        <v>2.7441254457346622E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15161,11 +15161,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0273292717413894E-2</v>
+        <v>4.1969010305515531E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.83144702889762612</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15173,43 +15173,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8652250173420413</v>
+        <v>2.7517507592294854</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3198470857707898</v>
+        <v>3.256611903184679</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2486949761735935</v>
+        <v>3.1492451299641977</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8572998045777931</v>
+        <v>2.828438190390139</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3294071864066859</v>
+        <v>2.1923832342651157</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1767057083737644</v>
+        <v>1.2262512118842388</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.28153677348686579</v>
+        <v>0.27060330655533704</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6701795083354514E-3</v>
+        <v>1.8459878776339203E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821568E-4</v>
+        <v>3.217457247694321E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.2419767760811915E-5</v>
+        <v>7.6763509188991491E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15238,11 +15238,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4969262295081965E-5</v>
+        <v>4.3606557377049174E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5089146932431191E-5</v>
+        <v>2.587318277406967E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -15262,51 +15262,51 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2816869099566349E-2</v>
+        <v>4.3240798496591765E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.90939518785677864</v>
+        <v>0.857429748550677</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2235023052025991</v>
+        <v>2.0117401808975894</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8084878882857636</v>
+        <v>2.9786992754545976</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2249943118916242</v>
+        <v>3.2882294944777342</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1492451299641977</v>
+        <v>3.2155450274371282</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0016078755160658</v>
+        <v>2.7707149620148295</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3522445117636144</v>
+        <v>2.2837325356928293</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.2634103395170946</v>
+        <v>1.275796715394713</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.26513657308957267</v>
+        <v>0.28700350695263022</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.7053411821951452E-3</v>
+        <v>1.6701795083354514E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0948874477821568E-4</v>
+        <v>2.9110327479139094E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Winter'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -17000,8 +17000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303073B7-556E-4714-A27A-3E87EB1A31BB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26461,11 +26461,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1076065573770492E-4</v>
+        <v>1.1768319672131147E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.3224650269726605E-5</v>
+        <v>6.7176190911584523E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26485,55 +26485,55 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.11099443222322572</v>
+        <v>0.10465189323904138</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2077031992374745</v>
+        <v>2.2732785417890828</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.3395356699818457</v>
+        <v>5.2316662625074652</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.6304833522120514</v>
+        <v>7.3397982721277835</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.9148804306105855</v>
+        <v>8.3945701536778934</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.0847956176817082</v>
+        <v>8.4216621017517799</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.078181111496999</v>
+        <v>7.4468363777208015</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6835146311346065</v>
+        <v>5.5112869150396184</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2290401970343448</v>
+        <v>2.980652489570164</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.69435549561631982</v>
+        <v>0.68741194066015654</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460561E-3</v>
+        <v>4.6097696728721934E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736756E-4</v>
+        <v>7.6693797202157812E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9358948980524821E-4</v>
+        <v>1.8576769223735941E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26562,59 +26562,59 @@
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1098176777195272</v>
+        <v>4.0699165352173958</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1360474595274219</v>
+        <v>4.1778257166943655</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1053821628412788</v>
+        <v>4.2261286970424923</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6235345829421646</v>
+        <v>3.6945842806469131</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1717733631121412</v>
+        <v>3.2352088303743844</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8821946992909626</v>
+        <v>2.9107312804720609</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4324480424928274</v>
+        <v>2.63728577238696</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4886408347842144</v>
+        <v>2.3938354696495776</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1788139094232881</v>
+        <v>2.1352376312348222</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2852815059321157</v>
+        <v>2.1743455104985179</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2071266201310711</v>
+        <v>2.1214129649803497</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0782462698356645</v>
+        <v>2.0382799954157478</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9243019147414511</v>
+        <v>2.0660925821434533</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4375788423446973</v>
+        <v>2.4127055888513844</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26622,7 +26622,7 @@
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9489208877820285</v>
+        <v>2.8365810444379513</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -26634,23 +26634,23 @@
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0546698294705639</v>
+        <v>2.9916869463886964</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5958410777857881</v>
+        <v>3.3192379179561122</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5269269342378298</v>
+        <v>3.3925678129335313</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1933894819462654</v>
+        <v>3.357997187201228</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8755268335238386</v>
+        <v>3.6146740658828107</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26663,11 +26663,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655737E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327782E-5</v>
+        <v>3.3917390509280424E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26687,27 +26687,27 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.12688567888233E-2</v>
+        <v>5.0740311873474608E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0601347045843319</v>
+        <v>1.0382762570671291</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.696735186859518</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5608922310322906</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7975436409495233</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.4213726034196847</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26715,27 +26715,27 @@
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8417573155673033</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6300443302336838</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759308024240466</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1292745631838225E-3</v>
+        <v>2.2829335522795624E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5715248697083292E-4</v>
+        <v>3.7219048642223642E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0070564368656853E-4</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26764,11 +26764,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5380327868852458E-5</v>
+        <v>5.4803449453551915E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.3917390509280424E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26788,11 +26788,11 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869388E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>1.0492054808257303</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26800,43 +26800,43 @@
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7425704060849583</v>
+        <v>3.8152416761060257</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1972850768389467</v>
+        <v>3.8774919281274078</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>4.2529393613846489</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5390905557484995</v>
+        <v>3.6496871356156406</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7556434575198092</v>
+        <v>2.8704619349164679</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5679474033676386</v>
+        <v>1.490326244785082</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35412130276432308</v>
+        <v>0.34717774780815991</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2390309839664937E-3</v>
+        <v>2.2170796998099598E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8346898601078906E-4</v>
+        <v>3.9098798573649078E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.483929551065191E-5</v>
+        <v>1.0070564368656853E-4</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26865,11 +26865,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.941847677595628E-5</v>
+        <v>5.5957206284153008E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3917390509280424E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26889,11 +26889,11 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.549721611161286E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0492054808257303</v>
+        <v>1.0819931521015345</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26905,15 +26905,15 @@
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0773626460721202</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8708802953499215</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -26921,23 +26921,23 @@
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5679474033676386</v>
+        <v>1.598995866800661</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35412130276432308</v>
+        <v>0.34023419285199669</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2170796998099598E-3</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.797094861479382E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0266109307854074E-4</v>
+        <v>9.8750194294596323E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27216,7 +27216,7 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1537568306010929E-4</v>
+        <v>1.1883695355191256E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27240,15 +27240,15 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.103594803408344</v>
+        <v>0.1025377135776466</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0765525141342582</v>
+        <v>2.1421278566858661</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2316662625074652</v>
+        <v>5.1237968550330839</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27256,35 +27256,35 @@
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5950872818990467</v>
+        <v>7.7549838562548157</v>
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4216621017517799</v>
+        <v>8.253228859716744</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.4468363777208015</v>
+        <v>7.741760590699843</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4538776763412891</v>
+        <v>5.6261053924362772</v>
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9496040261371412</v>
+        <v>3.2600886604673676</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.72212971544097249</v>
+        <v>0.71518616048480932</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5219645362460561E-3</v>
+        <v>4.2146465580545764E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2182397366736756E-4</v>
+        <v>7.5189997257017456E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4915134108832682</v>
+        <v>4.3100381215546513</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3867170025290845</v>
+        <v>4.0524909451935347</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27329,15 +27329,15 @@
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5169600363850422</v>
+        <v>3.4814351875326683</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1717733631121412</v>
+        <v>3.3303620312677484</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9392678616531596</v>
+        <v>2.7395117933854691</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
@@ -27345,67 +27345,67 @@
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3701341283659181</v>
+        <v>2.3938354696495776</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1134494921405893</v>
+        <v>2.222390187611754</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1965327095852376</v>
+        <v>2.2187199086719569</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2499834477064318</v>
+        <v>2.2285550339187514</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0182968582057894</v>
+        <v>1.998313720995831</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9243019147414511</v>
+        <v>2.0863483917723107</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.5121986028246375</v>
+        <v>2.4127055888513844</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8736150208365068</v>
+        <v>2.650421621159885</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7804111227659121</v>
+        <v>2.8365810444379513</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2356735364525786</v>
+        <v>3.1405066677333848</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8970507843280786</v>
+        <v>2.9875836213383309</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2751099202570995</v>
+        <v>3.180635595634298</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3538133129348213</v>
+        <v>3.5958410777857881</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4261575932596058</v>
+        <v>3.5269269342378298</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2921541050992431</v>
+        <v>3.1604679408952734</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5774093847912352</v>
+        <v>3.7264681091575369</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -27418,11 +27418,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.5957206284153008E-5</v>
+        <v>6.0572233606557372E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.1283030081375147E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27442,15 +27442,15 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.2854491534869388E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0819931521015345</v>
+        <v>1.1257100471359398</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7776372424653033</v>
+        <v>2.696735186859518</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27458,39 +27458,39 @@
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.1573109332500042</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2108310508758899</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7234181888604008</v>
+        <v>3.6865526622380207</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0139850316622914</v>
+        <v>2.8417573155673033</v>
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.490326244785082</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.35759308024240466</v>
+        <v>0.3367624153739151</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1073232790272882E-3</v>
+        <v>2.0853719948707538E-3</v>
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7219048642223642E-4</v>
+        <v>3.9098798573649078E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>9.3861570814665813E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27523,7 +27523,7 @@
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2600210295327782E-5</v>
+        <v>3.2270915241839627E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27543,19 +27543,19 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.021176695812591E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>1.0819931521015345</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8046045943338989</v>
+        <v>2.5888657793851371</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4518853260006899</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27563,19 +27563,19 @@
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0845061193496139</v>
+        <v>4.3792642929109258</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8340147687275419</v>
+        <v>3.6128216089932601</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.956575792963962</v>
+        <v>2.7556434575198092</v>
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.58347163508415</v>
+        <v>1.4748020130685706</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27583,15 +27583,15 @@
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707538E-3</v>
+        <v>2.260982268123028E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6843098655938556E-4</v>
+        <v>3.797094861479382E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.972791899058242E-5</v>
+        <v>9.6794744902624103E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27620,11 +27620,11 @@
       </c>
       <c r="C7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.6534084699453551E-5</v>
+        <v>5.941847677595628E-5</v>
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3588095455792262E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27648,23 +27648,23 @@
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0601347045843319</v>
+        <v>1.1475684946531426</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6428004831223273</v>
+        <v>2.561898427516542</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.8152416761060257</v>
+        <v>3.7425704060849583</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9974143588942352</v>
+        <v>4.1972850768389467</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.2950476718934079</v>
+        <v>4.0002894983320951</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27672,27 +27672,27 @@
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7269388381706445</v>
+        <v>2.8130526962181386</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5058504765015934</v>
+        <v>1.598995866800661</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.33329063789583346</v>
+        <v>0.35412130276432308</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0853719948707538E-3</v>
+        <v>2.1951284156534251E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649078E-4</v>
+        <v>3.5715248697083292E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>9.483929551065191E-5</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27890,11 +27890,11 @@
       </c>
       <c r="C3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1652943989071037E-4</v>
+        <v>1.1076065573770492E-4</v>
       </c>
       <c r="D3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>6.5200420590655564E-5</v>
+        <v>6.7834781018560848E-5</v>
       </c>
       <c r="E3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27914,19 +27914,19 @@
       </c>
       <c r="I3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.10148062374694922</v>
+        <v>0.10888025256183095</v>
       </c>
       <c r="J3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1858447517202717</v>
+        <v>2.1639863042030689</v>
       </c>
       <c r="K3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.1777315587702741</v>
+        <v>5.6631438924049879</v>
       </c>
       <c r="L3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.0491131920435146</v>
+        <v>7.6304833522120514</v>
       </c>
       <c r="M3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27934,11 +27934,11 @@
       </c>
       <c r="N3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>8.4216621017517799</v>
+        <v>8.7585285858218516</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.5942984842103218</v>
+        <v>7.0044500582522398</v>
       </c>
       <c r="P3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27946,23 +27946,23 @@
       </c>
       <c r="Q3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.980652489570164</v>
+        <v>3.0117009530031869</v>
       </c>
       <c r="R3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.66658127579166693</v>
+        <v>0.67352483074783021</v>
       </c>
       <c r="S3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.4780619679329874E-3</v>
+        <v>4.1707439897415077E-3</v>
       </c>
       <c r="T3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>7.2934297339306928E-4</v>
+        <v>7.8949497119868328E-4</v>
       </c>
       <c r="U3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.9163404041327601E-4</v>
+        <v>1.8967859102130382E-4</v>
       </c>
       <c r="V3" s="7">
         <f ca="1">VLOOKUP($A3,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -27987,99 +27987,99 @@
       </c>
       <c r="B4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!B$5:B$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.5368822332154224</v>
+        <v>4.4915134108832682</v>
       </c>
       <c r="C4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$5:C$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.18961996272379</v>
+        <v>3.8305096802046079</v>
       </c>
       <c r="D4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$5:D$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.968934430859647</v>
+        <v>4.1360474595274219</v>
       </c>
       <c r="E4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$5:E$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9443867839063258</v>
+        <v>3.8236402497051118</v>
       </c>
       <c r="F4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!F$5:F$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5880097340897903</v>
+        <v>3.6945842806469131</v>
       </c>
       <c r="G4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!G$5:G$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2986442976366268</v>
+        <v>3.14005562948102</v>
       </c>
       <c r="H4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!H$5:H$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9678044428342583</v>
+        <v>2.8536581181098635</v>
       </c>
       <c r="I4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$5:I$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6628904886237272</v>
+        <v>2.534866907439894</v>
       </c>
       <c r="J4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$5:J$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.3701341283659181</v>
+        <v>2.3227314457985999</v>
       </c>
       <c r="K4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$5:K$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2877546048944524</v>
+        <v>2.222390187611754</v>
       </c>
       <c r="L4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$5:L$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1077839132383591</v>
+        <v>2.2630943068453964</v>
       </c>
       <c r="M4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$5:M$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.2285550339187514</v>
+        <v>2.14284137876803</v>
       </c>
       <c r="N4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$5:N$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.0582631326257057</v>
+        <v>1.9583474465759143</v>
       </c>
       <c r="O4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$5:O$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1268600110300255</v>
+        <v>1.9850693436280233</v>
       </c>
       <c r="P4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$5:P$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.4873253493313241</v>
+        <v>2.5868183633045772</v>
       </c>
       <c r="Q4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$5:Q$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8178166709173516</v>
+        <v>2.7062199710790407</v>
       </c>
       <c r="R4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$5:R$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.8084960836019319</v>
+        <v>2.7242412010938737</v>
       </c>
       <c r="S4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$5:S$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0136175094411266</v>
+        <v>3.2039512468795142</v>
       </c>
       <c r="T4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$5:T$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.9272283966648294</v>
+        <v>2.8668731719913279</v>
       </c>
       <c r="U4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$5:U$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.0546698294705639</v>
+        <v>3.212127037175232</v>
       </c>
       <c r="V4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$5:V$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2846625229774022</v>
+        <v>3.526690287828369</v>
       </c>
       <c r="W4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!W$5:W$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.3589780326074563</v>
+        <v>3.1910291309770833</v>
       </c>
       <c r="X4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!X$5:X$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1604679408952734</v>
+        <v>3.4567618103542053</v>
       </c>
       <c r="Y4" s="9">
         <f ca="1">VLOOKUP($A4,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Y$5:Y$7)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7637327902491124</v>
+        <v>3.7264681091575369</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -28092,11 +28092,11 @@
       </c>
       <c r="C5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.8841598360655737E-5</v>
+        <v>5.9995355191256829E-5</v>
       </c>
       <c r="D5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.1283030081375147E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28116,31 +28116,31 @@
       </c>
       <c r="I5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264161E-2</v>
+        <v>5.021176695812591E-2</v>
       </c>
       <c r="J5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0601347045843319</v>
+        <v>1.0382762570671291</v>
       </c>
       <c r="K5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6428004831223273</v>
+        <v>2.7776372424653033</v>
       </c>
       <c r="L5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7425704060849583</v>
+        <v>3.633563501053358</v>
       </c>
       <c r="M5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9974143588942352</v>
+        <v>4.0373885024831777</v>
       </c>
       <c r="N5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.3792642929109258</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7234181888604008</v>
+        <v>3.5390905557484995</v>
       </c>
       <c r="P5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28148,11 +28148,11 @@
       </c>
       <c r="Q5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.5213747082181044</v>
+        <v>1.598995866800661</v>
       </c>
       <c r="R5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.34370597033007827</v>
+        <v>0.35064952528624149</v>
       </c>
       <c r="S5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28160,11 +28160,11 @@
       </c>
       <c r="T5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9098798573649078E-4</v>
+        <v>3.9474748559934164E-4</v>
       </c>
       <c r="U5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596323E-5</v>
+        <v>9.972791899058242E-5</v>
       </c>
       <c r="V5" s="7">
         <f ca="1">VLOOKUP($A5,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28193,11 +28193,11 @@
       </c>
       <c r="C6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!C$2:C$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4803449453551915E-5</v>
+        <v>5.5380327868852458E-5</v>
       </c>
       <c r="D6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.2270915241839627E-5</v>
+        <v>3.1941620188351465E-5</v>
       </c>
       <c r="E6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28217,31 +28217,31 @@
       </c>
       <c r="I6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.4968671196264161E-2</v>
+        <v>5.1797401704171998E-2</v>
       </c>
       <c r="J6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0929223758601359</v>
+        <v>1.1038515996187372</v>
       </c>
       <c r="K6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.6158331312537326</v>
+        <v>2.7506698905967086</v>
       </c>
       <c r="L6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5972278660428243</v>
+        <v>3.7789060410954924</v>
       </c>
       <c r="M6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.9574402153052928</v>
+        <v>4.0773626460721202</v>
       </c>
       <c r="N6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.168722740367131</v>
+        <v>4.3371559824021668</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.5022250291261199</v>
+        <v>3.6865526622380207</v>
       </c>
       <c r="P6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28249,23 +28249,23 @@
       </c>
       <c r="Q6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.6145200985171724</v>
+        <v>1.5368989399346158</v>
       </c>
       <c r="R6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.36453663519856788</v>
+        <v>0.34370597033007827</v>
       </c>
       <c r="S6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1951284156534251E-3</v>
+        <v>2.1731771314968907E-3</v>
       </c>
       <c r="T6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.6091198683368378E-4</v>
+        <v>3.7594998628508728E-4</v>
       </c>
       <c r="U6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>9.8750194294596323E-5</v>
+        <v>9.2883846118679703E-5</v>
       </c>
       <c r="V6" s="7">
         <f ca="1">VLOOKUP($A6,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28298,7 +28298,7 @@
       </c>
       <c r="D7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!D$2:D$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.4246685562768586E-5</v>
+        <v>3.2929505348815944E-5</v>
       </c>
       <c r="E7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!E$2:E$4)*(RANDBETWEEN(95,105)/100))</f>
@@ -28318,55 +28318,55 @@
       </c>
       <c r="I7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!I$2:I$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>5.021176695812591E-2</v>
+        <v>5.4968671196264161E-2</v>
       </c>
       <c r="J7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!J$2:J$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.1147808233773386</v>
+        <v>1.0601347045843319</v>
       </c>
       <c r="K7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!K$2:K$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.561898427516542</v>
+        <v>2.6428004831223273</v>
       </c>
       <c r="L7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!L$2:L$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7425704060849583</v>
+        <v>3.7062347710744254</v>
       </c>
       <c r="M7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!M$2:M$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.0373885024831777</v>
+        <v>4.1173367896610626</v>
       </c>
       <c r="N7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!N$2:N$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>4.3371559824021668</v>
+        <v>4.168722740367131</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!O$2:O$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7971492421051609</v>
+        <v>3.7234181888604008</v>
       </c>
       <c r="P7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!P$2:P$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.7556434575198092</v>
+        <v>2.8991665542656326</v>
       </c>
       <c r="Q7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!Q$2:Q$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.490326244785082</v>
+        <v>1.5058504765015934</v>
       </c>
       <c r="R7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!R$2:R$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>0.32981886041775188</v>
+        <v>0.34370597033007827</v>
       </c>
       <c r="S7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!S$2:S$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>2.1731771314968907E-3</v>
+        <v>2.2390309839664937E-3</v>
       </c>
       <c r="T7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!T$2:T$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>3.7594998628508728E-4</v>
+        <v>3.6091198683368378E-4</v>
       </c>
       <c r="U7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!U$2:U$4)*(RANDBETWEEN(95,105)/100))</f>
-        <v>1.0168336838255463E-4</v>
+        <v>1.0266109307854074E-4</v>
       </c>
       <c r="V7" s="7">
         <f ca="1">VLOOKUP($A7,'RES installed'!$A$2:$C$6,3,FALSE)*(AVERAGE('[1]Profiles, RES, Summer'!V$2:V$4)*(RANDBETWEEN(95,105)/100))</f>
